--- a/data/trans_bre/POLIPATOLOGIA-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 23,26</t>
+          <t>-0,04; 23,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,05; 36,39</t>
+          <t>11,81; 37,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 25,43</t>
+          <t>0,71; 25,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 25,13</t>
+          <t>-0,68; 24,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 163,4</t>
+          <t>-1,07; 159,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,14; 225,38</t>
+          <t>42,17; 226,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 113,4</t>
+          <t>1,1; 117,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 77,26</t>
+          <t>-2,13; 75,1</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 15,79</t>
+          <t>6,5; 16,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 21,87</t>
+          <t>10,87; 22,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 20,64</t>
+          <t>9,88; 20,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 14,63</t>
+          <t>1,23; 13,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,09; 97,75</t>
+          <t>31,6; 103,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,88; 91,2</t>
+          <t>35,44; 94,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,06; 102,98</t>
+          <t>39,03; 102,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 44,3</t>
+          <t>3,76; 42,17</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,08; 17,89</t>
+          <t>9,67; 17,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 17,93</t>
+          <t>10,15; 18,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 18,32</t>
+          <t>9,78; 18,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 22,18</t>
+          <t>12,47; 22,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,82; 99,11</t>
+          <t>44,59; 101,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,77; 82,44</t>
+          <t>38,52; 84,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,47; 86,0</t>
+          <t>38,44; 86,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,84; 94,77</t>
+          <t>40,99; 92,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 21,55</t>
+          <t>12,46; 22,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 17,64</t>
+          <t>8,03; 17,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 14,0</t>
+          <t>4,48; 13,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 38,13</t>
+          <t>10,3; 36,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,15; 120,39</t>
+          <t>55,53; 128,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,18; 89,57</t>
+          <t>32,61; 89,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 72,18</t>
+          <t>18,14; 67,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,38; 120,03</t>
+          <t>29,77; 120,26</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,92; 16,42</t>
+          <t>9,14; 16,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,87</t>
+          <t>9,07; 17,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,15</t>
+          <t>6,65; 15,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,5</t>
+          <t>8,5; 17,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,14; 89,59</t>
+          <t>42,52; 94,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,43; 75,83</t>
+          <t>31,53; 75,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,34; 60,92</t>
+          <t>22,64; 62,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,44; 53,94</t>
+          <t>22,33; 53,77</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,89</t>
+          <t>11,64; 16,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,66</t>
+          <t>12,31; 16,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,4</t>
+          <t>10,11; 14,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,97; 20,14</t>
+          <t>11,99; 20,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,13; 84,93</t>
+          <t>55,85; 85,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,18; 71,8</t>
+          <t>48,57; 72,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,48; 62,95</t>
+          <t>40,53; 63,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,31; 64,19</t>
+          <t>35,05; 64,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 23,0</t>
+          <t>1,14; 23,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 37,42</t>
+          <t>10,96; 36,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 25,91</t>
+          <t>0,2; 26,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 159,55</t>
+          <t>0,05; 164,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,17; 226,5</t>
+          <t>39,52; 222,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 117,67</t>
+          <t>0,12; 120,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 16,75</t>
+          <t>5,79; 15,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 22,61</t>
+          <t>10,8; 22,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,88; 20,03</t>
+          <t>9,98; 20,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,6; 103,97</t>
+          <t>26,77; 94,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,44; 94,12</t>
+          <t>37,02; 93,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,03; 102,58</t>
+          <t>39,42; 106,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,89</t>
+          <t>9,79; 18,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 18,53</t>
+          <t>9,96; 18,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 18,25</t>
+          <t>10,28; 18,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,59; 101,12</t>
+          <t>45,21; 102,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,52; 84,26</t>
+          <t>38,4; 82,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,44; 86,96</t>
+          <t>40,55; 86,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 22,16</t>
+          <t>12,14; 21,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 17,47</t>
+          <t>7,68; 17,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 13,46</t>
+          <t>4,07; 13,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,53; 128,11</t>
+          <t>52,48; 120,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,61; 89,9</t>
+          <t>31,64; 90,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,14; 67,38</t>
+          <t>16,98; 69,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 16,92</t>
+          <t>9,25; 16,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 17,94</t>
+          <t>8,51; 17,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 15,31</t>
+          <t>6,21; 14,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,52; 94,53</t>
+          <t>40,62; 90,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,53; 75,68</t>
+          <t>31,58; 74,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,64; 62,31</t>
+          <t>21,36; 60,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,64; 16,0</t>
+          <t>11,33; 15,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,31; 16,85</t>
+          <t>12,05; 16,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,47</t>
+          <t>9,97; 14,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55,85; 85,4</t>
+          <t>54,26; 84,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,57; 72,36</t>
+          <t>47,72; 71,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,53; 63,04</t>
+          <t>39,94; 64,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/POLIPATOLOGIA-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 23,23</t>
+          <t>1,7; 23,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 36,03</t>
+          <t>11,05; 36,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 26,23</t>
+          <t>-0,23; 25,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 24,75</t>
+          <t>0,28; 25,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 164,43</t>
+          <t>5,96; 163,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,52; 222,48</t>
+          <t>39,14; 225,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 120,71</t>
+          <t>-2,16; 113,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 75,1</t>
+          <t>0,47; 77,26</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 15,9</t>
+          <t>5,88; 15,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 22,1</t>
+          <t>11,0; 21,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 20,84</t>
+          <t>9,89; 20,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 13,97</t>
+          <t>1,85; 14,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,77; 94,95</t>
+          <t>28,09; 97,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,02; 93,94</t>
+          <t>35,88; 91,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,42; 106,41</t>
+          <t>39,06; 102,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 42,17</t>
+          <t>4,57; 44,3</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,79; 18,27</t>
+          <t>10,08; 17,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 18,22</t>
+          <t>9,19; 17,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 18,32</t>
+          <t>9,91; 18,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 22,33</t>
+          <t>12,42; 22,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,21; 102,25</t>
+          <t>45,82; 99,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,4; 82,58</t>
+          <t>36,77; 82,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,55; 86,19</t>
+          <t>40,47; 86,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,99; 92,35</t>
+          <t>40,84; 94,77</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 21,77</t>
+          <t>12,35; 21,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 17,28</t>
+          <t>7,88; 17,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,69</t>
+          <t>4,41; 14,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 36,71</t>
+          <t>10,77; 38,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,48; 120,49</t>
+          <t>56,15; 120,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,64; 90,11</t>
+          <t>32,18; 89,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 69,93</t>
+          <t>18,88; 72,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,77; 120,26</t>
+          <t>31,38; 120,03</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,25; 16,73</t>
+          <t>8,92; 16,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,49</t>
+          <t>8,99; 17,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 14,79</t>
+          <t>6,55; 15,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 17,28</t>
+          <t>8,51; 17,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,62; 90,83</t>
+          <t>40,14; 89,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,58; 74,18</t>
+          <t>32,43; 75,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,36; 60,72</t>
+          <t>22,34; 60,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 53,77</t>
+          <t>23,44; 53,94</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,8</t>
+          <t>11,49; 15,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,05; 16,58</t>
+          <t>12,27; 16,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 14,6</t>
+          <t>10,1; 14,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,99; 20,78</t>
+          <t>11,97; 20,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,26; 84,4</t>
+          <t>55,13; 84,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,72; 71,85</t>
+          <t>48,18; 71,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,94; 64,93</t>
+          <t>40,48; 62,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,05; 64,17</t>
+          <t>35,31; 64,19</t>
         </is>
       </c>
     </row>
